--- a/biology/Zoologie/Acherontia_lachesis/Acherontia_lachesis.xlsx
+++ b/biology/Zoologie/Acherontia_lachesis/Acherontia_lachesis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acherontia lachesis est une espèce de lépidoptère de la famille des Sphingidae, sous-famille des Sphinginae, tribu des Acherontiini et du genre Acherontia. Le genre a été popularisé par le nom vernaculaire de sphinx tête de mort, attribué aussi à l'espèce Acherontia atropos (d'Afrique et migratrice en Europe).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les papillons ont une envergure de 100 à 132 mm et sont grands et robustes. Comme pour les autres espèces du genre Acherontia les ailes avant sont tachetées noir, les ailes postérieures sont de couleur jaune et noir, les deux barres noires typiques du genre sont très prononcées et délavées. Au sommet du thorax on retrouve le motif typique en forme de crâne. 
 			Imago (Parc national du Kinabalu, Malaisie)
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Originaire de Chine, de Russie, de Taïwan, du Japon et de tout le sud-est asiatique du Pakistan aux Philippines.
@@ -577,15 +593,52 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Acherontia lachesis a été décrite par l’entomologiste danois Johan Christian Fabricius en 1798, sous le nom initial de Sphinx lachesis[1].
-Synonymie
-Sphinx lachesis Fabricius, 1798
-Acherontia morta Hübner, 1819[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Acherontia lachesis a été décrite par l’entomologiste danois Johan Christian Fabricius en 1798, sous le nom initial de Sphinx lachesis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acherontia_lachesis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acherontia_lachesis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sphinx lachesis Fabricius, 1798
+Acherontia morta Hübner, 1819
 Spectrum charon Billberg, 1820
-Acherontia satanas Boisduval, 1836[3]
-Acherontia lethe Westwood, 1847[4]
+Acherontia satanas Boisduval, 1836
+Acherontia lethe Westwood, 1847
 Acherontia circe Moore, 1858
 Manduca lachesis atra Huwe, 1895
 Acherontia sojejimae Matsumura, 1908
